--- a/TOYOTA-Celaya/Fuentes - Toyota/Distribuidor/Servicios/Citas - Telemarketing/Toyota - CEL - Analisis - Servicio - Citas_CRT - v1_1_2 - Parte CRT No Implementada Formalmente SEP x KPI.xlsx
+++ b/TOYOTA-Celaya/Fuentes - Toyota/Distribuidor/Servicios/Citas - Telemarketing/Toyota - CEL - Analisis - Servicio - Citas_CRT - v1_1_2 - Parte CRT No Implementada Formalmente SEP x KPI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUXGG\ownCloud2\MRS-ENCARGADO\AUXGG-REINA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KE\JMM\PROCESSES MAPPING\toyota_proceso\TOYOTA-Celaya\Fuentes - Toyota\Distribuidor\Servicios\Citas - Telemarketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4351B970-8C84-4419-AB70-4AC4276930F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220BEA94-3C05-4481-8000-CD1C8C15B569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E74557B-02A4-44EF-8F45-FC026D5565D6}"/>
+    <workbookView xWindow="525" yWindow="210" windowWidth="19950" windowHeight="10590" activeTab="1" xr2:uid="{7E74557B-02A4-44EF-8F45-FC026D5565D6}"/>
   </bookViews>
   <sheets>
     <sheet name="FTO Task List" sheetId="4" r:id="rId1"/>
@@ -47,9 +47,9 @@
   <commentList>
     <comment ref="F5" authorId="0" shapeId="0" xr:uid="{BB1B4A19-AA7E-4832-8196-5D8028089951}">
       <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Manual: SOP / Sistema: Requerimientos</t>
       </text>
     </comment>
@@ -72,9 +72,9 @@
     </comment>
     <comment ref="K8" authorId="2" shapeId="0" xr:uid="{044D5378-B8B2-4523-950C-9575B0F12A15}">
       <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     El KPI no se encuentra integrado en esta pregunta de la guía, sin embargo los datos para ese KPI nacen de este proceso</t>
       </text>
     </comment>
@@ -83,9 +83,9 @@
     </comment>
     <comment ref="L20" authorId="3" shapeId="0" xr:uid="{C4302B01-A62C-4B41-90C1-0DD5BAA8BA1F}">
       <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Citas puede disponer de un 80% del tiempo disponible en taller</t>
       </text>
     </comment>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="480">
   <si>
     <t>Tipo</t>
   </si>
@@ -716,49 +716,16 @@
 Poder gestionar desde el sistema disponibilidad de los técnicos y/o Asesores de Servicio, esto también debería incluirse para el cálculo del 20% de disponibilidad.</t>
   </si>
   <si>
-    <t>Campos que no se tienen en Kepler.
-- Domicilio para servicio móvil (campos específicos)
-- Contacto para la ubicación
-- Horario
-- Gestionar con estatus disponibilidad de los técnicos y/o con agenda</t>
-  </si>
-  <si>
     <t>Actualmente sólo contamos con 3 perfiles en el sistema, falta el del propietario</t>
   </si>
   <si>
-    <t>-Incluir datos de contacto del propietario</t>
-  </si>
-  <si>
     <t>El DMS cuenta con los campos requeridos, el detalle está en las restricciones o candados que debería tener para disminuir la integración de información errónea o poder registrar información adicional. Por ejemplo los campos asociados al domicilio</t>
   </si>
   <si>
-    <t>- Catalogar los campos asociados al domicilio (Ciudad, Estado, Municipio, C.P.)
-- Medio de contacto preferido
-- Horario de contacto preferido
-- Poder registrar si el cliente solicita no ser contactado
-- Foráneo
-- De qué municipio
-- Fecha de nacimiento</t>
-  </si>
-  <si>
-    <t>Los campos que no llenan: 
-- Código Katashiki
-- Fecha Dofu
-- Garantía Extendida (fecha de vigencia)
-- Seguro Vehicular
-- Transmisión
-La idea es restringir captura de transacciones por falta de estos datos en algunos casos
-- Fecha de entrega de la unidad (pata Toyota la fecha DOFU es la que rige la programación de servicio)</t>
-  </si>
-  <si>
     <t>SSC 2022 .xlxs</t>
   </si>
   <si>
     <t>El sistema nos permite guardar la información de campañas aplicadas, pero no gestiona las acciones de servicio pendientes (se nos comparte la información por medio de un archivo en Excel del área de garantías)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- No se cuenta con información de Acciones de Servicio pendientes (campañas)
-- Revisar con garantías porqué está en Excel </t>
   </si>
   <si>
     <t>Disponibilidad de los campos necesarios en
@@ -784,11 +751,6 @@
 - Imprimir el menú de síntomas en la orden servicio aunque alguno no apliquen</t>
   </si>
   <si>
-    <t>- Ampliar campo de comentarios al registrar síntomas en los puntos
-- Incluir campos para comentario del cliente
-- Imprimir en orden de servicio el menú de síntomas</t>
-  </si>
-  <si>
     <t>- Fecha preferida para servicio
 - Hora preferida para servicio
 - Horario de entrega</t>
@@ -819,12 +781,6 @@
 Para la parte de las citas el sistema no cuenta con la gestión de el número de llamadas que se deben realizar (3)</t>
   </si>
   <si>
-    <t>- Incluir visualización de datos asociados al pedido:
-Fecha, Folio, Asesor de Servicio, Modelo, Serie, Orden, Fecha estimada de entrega, Fecha arribo, Ubicación del Vehículo y Estatus
--  Incluir datos para gestión de contactos (3 intentos): 
-Fecha contacto 1, Programador de citas, Fecha de cita, Folio de cita, Estatus de concretado, Comentarios.</t>
-  </si>
-  <si>
     <t>Se llava un tablero manual para organizar las citas (días: N-3, al día 0, Los no Show, Pienza en B.O. y Sin cita)</t>
   </si>
   <si>
@@ -839,10 +795,6 @@
   </si>
   <si>
     <t>El sistema sólo registra los No Show pero no permite registrar el seguimiento realizado, se lleva el seguimiento en Excel</t>
-  </si>
-  <si>
-    <t>- Reporte de No Show por fecha: Incluir cuándo se agendó (Reporte de Citas Agendadas)
-- Campos específicos para seguimiento a No Show: Seguimiento (catalogado), Fecha de seguimiento, medio de confirmación (catalogado), ¿Confirmó Asistencia? (s/n), Comentario</t>
   </si>
   <si>
     <t>• Disponibilidad de un registro diario con el total
@@ -867,21 +819,6 @@
   <si>
     <t>Dashboard {mes, año}.xlsx
 57040Estatus_{ año,mes}.xlsx</t>
-  </si>
-  <si>
-    <t>- Horario de contacto preferido
-- Lista objetivo:
-- Tipo VIN (1, s)
-- ¿Es Empresa?
-- Nombre Empresa
-- Tipo de servicio a ofrecer (catalogado: Express, Móvil, Normal)
-- Asignación (Telemarketing)
-- Fecha Proximo servicio 
-- Clasificar (tiempo o km)
-- 4 Contactos (N-30, N-15, N-7, N-3: El deber ser y el real)
-- Nota de contacto (catalogado: Realizado, Citado, Contactado, No Contactado, Inactivo)
-- Detalle de Nota (catalogado)
-- Comentarios</t>
   </si>
   <si>
     <t>Dashboard {mes, año}.xlsx
@@ -990,15 +927,6 @@
   </si>
   <si>
     <t>Tasa del Primer Servicio de Mantenimiento General</t>
-  </si>
-  <si>
-    <t>◙ Disponibilidad mensual de la medición de la
-cantidad de Clientes que acudieron en tiempo
-a su 1er servicio de acuerdo a la lista objetivo.
-◙ Disponibilidad de manera mensual y
-acumulativa de información que mida la
-cantidad de Clientes que acudieron a su 1er
-servicio después de 6 meses.</t>
   </si>
   <si>
     <t>Nos basamos en la información que nos envían en el Dashboard de Toyota México</t>
@@ -1315,16 +1243,6 @@
     <t>Tasa Retención Pura - Autos vendidos por el Distribuidor</t>
   </si>
   <si>
-    <t>- Corregir la funcionalidad de pasar a Inactivo
-- Identificar si la unidad es para Primer servicio o Recurrente
-- Identificar el motivo por el cual no quiere ser contactado
-- Si el servicio se realiza por tiempo o po KM
-- Si la unidad fue vendida por el Distribuidor o no
-- Generar reporte para lista de objetivo (Formato Toyota)
-- Determinación de lista objetivo (Dashboard)
-- Comentarios Citas ( Nuevo Campo )</t>
-  </si>
-  <si>
     <t>- Slepping Over  (Auto se queda en taller, porque no paso el cliente)
 - Carry Over (Auto se queda en taller, por temas de operación, e.g. no hay piezas, o no detectan la falla) 
 - No show (no llega cliente cita)
@@ -1402,12 +1320,6 @@
     <t>Número de VINs de 6 meses de edad, con al menos 1 CPU (mtto) / Unidades en Operación con 6 meses de edad que asistirán al taller</t>
   </si>
   <si>
-    <t>- Requerimientos Informacion que puedan ser consultados en sistema basado en especifiaciones ( Reportes para visualizar casos, e inclusive medir o KPIs)</t>
-  </si>
-  <si>
-    <t>Por la naturaleza en como se obtienen los Flat Rates es un tema complicado considerando que estos datos se encuentran en plataformas de la marca y la estructura de INFO es por distintos criterios ( modelo, año, parte, tipo de trabajo ), lo mas factible seria tener una Interface o una Base de Datos del Proveedor para obtener.</t>
-  </si>
-  <si>
     <t>K-RT-9: ¿El Distribuidor mide la Tasa de Retención Pura de Clientes y por edad del vehículo?</t>
   </si>
   <si>
@@ -1642,12 +1554,728 @@
   <si>
     <t>Registro mensual de citas canceladas</t>
   </si>
+  <si>
+    <t>Domicilio Recoleccion</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Separar por campos ( calle, numero ext., numero int. colonia, ciudad, etc. ), modalidad de recoleccion de Auto del Cliente</t>
+  </si>
+  <si>
+    <t>A, V</t>
+  </si>
+  <si>
+    <t>K-CI-1</t>
+  </si>
+  <si>
+    <t>Contacto Recoleccion</t>
+  </si>
+  <si>
+    <t>Para modalidad de recoleccion del Auto del Cliente</t>
+  </si>
+  <si>
+    <t>Horario Recoleccion</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Fecha Recoleccion</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Informacion de Campañas</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Clientes, Autos, Campañas</t>
+  </si>
+  <si>
+    <t>Una opcion para Visualizar las Campañas Activas de un Modelo asociado a un Cliente, incluida Descripcion.</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Numeros Telefonicos</t>
+  </si>
+  <si>
+    <t>Se solicita que los Numeros Telefonicos sean de 10 Digitos. Analizar Alcance, Toyota si les envia un Reporte donde identica estos datos como Incorrectos.</t>
+  </si>
+  <si>
+    <t>Domicilio SERV Movil</t>
+  </si>
+  <si>
+    <t>Separar por campos ( calle, numero ext., numero int. colonia, ciudad, etc. ), modalidad de SERV Movil para  Auto del Cliente. Se puede Homologar un Esquema de Datos Alternativos que se usen para SERV Movil y Recoleccion de acuerdo al Tipo de Servicio / Orden.</t>
+  </si>
+  <si>
+    <t>S - C - 002</t>
+  </si>
+  <si>
+    <t>Contacto SERV Movil</t>
+  </si>
+  <si>
+    <t>Para modalidad de recoleccion del Auto del Cliente. Se puede Homologar un Esquema de Datos Alternativos que se usen para SERV Movil y Recoleccion de acuerdo al Tipo de Servicio / Orden.</t>
+  </si>
+  <si>
+    <t>Horario SERV Movil</t>
+  </si>
+  <si>
+    <t>Fecha SERV Movil</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campos que no se tienen en Kepler.
+- Domicilio para servicio móvil (campos específicos)
+- Contacto para la ubicación
+- Horario
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Gestionar con estatus disponibilidad de los técnicos y/o con agenda ( Que se tengan para asignar solo las Hrs. Habiles de los Tecnicos, gestionando las Hrs. de Vacaciones, Cursos, Comidas, Permisos, como No Disponibles para No Asignarles Trabajos ).</t>
+    </r>
+  </si>
+  <si>
+    <t>- Catalogar los campos asociados al domicilio (Ciudad, Estado, Municipio, C.P.)
+- Medio de contacto preferido
+- Horario de contacto preferido
+- Poder registrar si el cliente solicita no ser contactado
+- Foraneo
+- De que municipio
+- Fecha de nacimiento</t>
+  </si>
+  <si>
+    <t>S - C - 003</t>
+  </si>
+  <si>
+    <t>- Incluir datos de contacto del propietario</t>
+  </si>
+  <si>
+    <t>Datos de Contacto del Propietario</t>
+  </si>
+  <si>
+    <t>Clientes, Citas</t>
+  </si>
+  <si>
+    <t>OLAI</t>
+  </si>
+  <si>
+    <t>Se tienen actualmente en el Sistema 3 Perfiles de Contactos, Falta uno para el Propietario.</t>
+  </si>
+  <si>
+    <t>K-CI-3</t>
+  </si>
+  <si>
+    <t>K-CI-2</t>
+  </si>
+  <si>
+    <t>S - C - 004</t>
+  </si>
+  <si>
+    <t>K-CI-4</t>
+  </si>
+  <si>
+    <t>Catalogar datos del Domicilio</t>
+  </si>
+  <si>
+    <t>Sugieren que los Campos de Domiciliacion sean Catalogados (Pais, Estados, Ciudades, Municipios)</t>
+  </si>
+  <si>
+    <t>Nice to have</t>
+  </si>
+  <si>
+    <t>Medio de Contacto Preferido</t>
+  </si>
+  <si>
+    <t>T, C</t>
+  </si>
+  <si>
+    <t>Puede ser un CAT</t>
+  </si>
+  <si>
+    <t>Horario de Contacto Preferido</t>
+  </si>
+  <si>
+    <t>Cliente No quiere ser Contactado</t>
+  </si>
+  <si>
+    <t>S / N</t>
+  </si>
+  <si>
+    <t>Fecha de Nacimiento</t>
+  </si>
+  <si>
+    <t>Verificar, porque al parecer se tiene en el Perfil No en el CAT de Clientes</t>
+  </si>
+  <si>
+    <t>Es Foraneo</t>
+  </si>
+  <si>
+    <t>Municipio (Foraneo)</t>
+  </si>
+  <si>
+    <t>Si es Foraneo desean Capturar de que Municipio</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.- No se cuenta con información de Acciones de Servicio pendientes (campañas)
+2.- Revisar con garantías porqué está en Excel 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ESTO SE DOCUMENTARA EN EL AREA DE GARANTIAS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Los campos que no llenan: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Código Katashiki
+- Fecha Dofu
+- Garantía Extendida (fecha de vigencia)
+- Seguro Vehicular
+- Transmisión
+La idea es restringir captura de transacciones por falta de estos datos en algunos casos
+- Fecha de entrega de la unidad (pata Toyota la fecha DOFU es la que rige la programación de servicio)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REVISAR ESTO, SOBRE TODO POR EL TEMA DE LA RESTRICCION</t>
+    </r>
+  </si>
+  <si>
+    <t>Comentarios Cliente</t>
+  </si>
+  <si>
+    <t>Ordenes, Citas</t>
+  </si>
+  <si>
+    <t>S - C - 005</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>K-CI-8</t>
+  </si>
+  <si>
+    <t>S - C - 006</t>
+  </si>
+  <si>
+    <t>Comentarios Sintomas</t>
+  </si>
+  <si>
+    <t>Ordenes, Puntos, Citas</t>
+  </si>
+  <si>
+    <t>K-CI-9</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.- Ampliar campo de comentarios al registrar síntomas en los puntos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.- Incluir campos para comentario del cliente
+3.- Imprimir en orden de servicio el menu de sintomas</t>
+    </r>
+  </si>
+  <si>
+    <t>S - C - 007</t>
+  </si>
+  <si>
+    <t>K-CI-10</t>
+  </si>
+  <si>
+    <t>Fecha Preferida para Servicio</t>
+  </si>
+  <si>
+    <t>Horario Preferido para el Servicio</t>
+  </si>
+  <si>
+    <t>Horario Preferido para la Entrega</t>
+  </si>
+  <si>
+    <t>Esto entra en la parte de contar en el DMS con INFO Suficiente de las Preferencias del Cliente</t>
+  </si>
+  <si>
+    <t>Ampliar en las Ordenes los Comentarios de los Simtomas</t>
+  </si>
+  <si>
+    <t>Incluir en las Ordenes los Comentarios del Cliente con los Sintomas</t>
+  </si>
+  <si>
+    <t>K-CI-12</t>
+  </si>
+  <si>
+    <t>OLIR</t>
+  </si>
+  <si>
+    <t>S - C - 008</t>
+  </si>
+  <si>
+    <t>Contacto Confirmacion</t>
+  </si>
+  <si>
+    <t>Fecha Confirmacion</t>
+  </si>
+  <si>
+    <t>Hora Comfirmacion</t>
+  </si>
+  <si>
+    <t>Esto entra en la parte de contar en el DMS con INFO Suficiente del Contacto y Horarios con quien se confirmo la Cita</t>
+  </si>
+  <si>
+    <t>S - C - 009</t>
+  </si>
+  <si>
+    <t>Por la naturaleza en como se obtienen los Flat Rates es un tema complicado considerando que estos datos se encuentran en plataformas de la marca y la estructura de INFO es por distintos criterios ( modelo, año, parte, tipo de trabajo ), lo mas factible seria tener una Interface o una Base de Datos del Proveedor para obtener.
+Por el volumen de la INFO, la disponibilidad de la misma habra que analizar la viabilidad de este requerimiento.</t>
+  </si>
+  <si>
+    <t>◙ Disponibilidad mensual de la medición de la cantidad de Clientes que acudieron en tiempo a su 1er servicio de acuerdo a la lista objetivo.
+◙ Disponibilidad de manera mensual y
+acumulativa de información que mida la
+cantidad de Clientes que acudieron a su 1er servicio después de 6 meses.</t>
+  </si>
+  <si>
+    <t>- Requerimientos Informacion que puedan ser consultados en sistema basado en especifiaciones ( Reportes para visualizar casos, e inclusive medir o KPIs)
+Contar con un Tipo Browser de Consulta y Exportacion a Excel en un momento dado para hacer distintos Queries o Consultas de INFO en base a condiciones especificas.
+Ejemplo : Definicion de la Lista Objetivo (para generar Citas de Servicio).</t>
+  </si>
+  <si>
+    <t>Citas, Reporte de Ordenes</t>
+  </si>
+  <si>
+    <t>Como parte de tener INFO suficiente en el DMS para cuando se hacen Pedidos Especiales de Partes. En este caso para Visualizacion de Datos del Pedido Especial.</t>
+  </si>
+  <si>
+    <t>DATOS DE PEDIDO ESPECIAL DE PARTES</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Folio, Fecha, Asesor de Servicio, Modelo, VIN, Fecha Arribo, Fecha de Entrega Estimada, Estatus, Ubicacion.</t>
+  </si>
+  <si>
+    <t>VERIFICAR CON REYNA DE CITAS donde se van a Requerir los Datos de los Intentos de Contacto si en las Ordenes o en el Registro de Citas.</t>
+  </si>
+  <si>
+    <t>Fecha Contacto 1</t>
+  </si>
+  <si>
+    <t>Programador Citas 1</t>
+  </si>
+  <si>
+    <t>Fecha Cita 1</t>
+  </si>
+  <si>
+    <t>Folio Cita 1</t>
+  </si>
+  <si>
+    <t>Estatus 1</t>
+  </si>
+  <si>
+    <t>Comentarios 1</t>
+  </si>
+  <si>
+    <t>F, H</t>
+  </si>
+  <si>
+    <t>T, CAT</t>
+  </si>
+  <si>
+    <t>S, CAT</t>
+  </si>
+  <si>
+    <t>Intento 1</t>
+  </si>
+  <si>
+    <t>Fecha Contacto 2</t>
+  </si>
+  <si>
+    <t>Intento 2</t>
+  </si>
+  <si>
+    <t>Programador Citas 2</t>
+  </si>
+  <si>
+    <t>Fecha Cita 2</t>
+  </si>
+  <si>
+    <t>Folio Cita 2</t>
+  </si>
+  <si>
+    <t>Estatus 2</t>
+  </si>
+  <si>
+    <t>Comentarios 2</t>
+  </si>
+  <si>
+    <t>Fecha Contacto 3</t>
+  </si>
+  <si>
+    <t>Programador Citas 3</t>
+  </si>
+  <si>
+    <t>Fecha Cita 3</t>
+  </si>
+  <si>
+    <t>Folio Cita 3</t>
+  </si>
+  <si>
+    <t>Estatus 3</t>
+  </si>
+  <si>
+    <t>Comentarios 3</t>
+  </si>
+  <si>
+    <t>Intento 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.- Incluir visualización de datos asociados al pedido:
+Fecha, Folio, Asesor de Servicio, Modelo, Serie, Orden, Fecha estimada de entrega, Fecha arribo, Ubicación del Vehículo y Estatus
+2.-  Incluir datos para gestión de contactos (3 intentos): 
+Fecha contacto 1, Programador de citas, Fecha de cita, Folio de cita, Estatus de concretado, Comentarios.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.- SE DEBE ANALIZAR A DETALLE LA MECANICA DEL TABLERO DE CITAS QUE USAN CON LAS ORDENES ESTABLECIDAS, PARA DETERMINAR LOS CAMPOS QUE FALTAN PARA LLEVAR ESTE CONTROL DE FORMA VISUAL POR SISTEMA.</t>
+    </r>
+  </si>
+  <si>
+    <t>TABLERO DE CONTROL DE CITAS DIGITAL (ES DECIR VISUAL EN EL SISTEMA)</t>
+  </si>
+  <si>
+    <t>Falta Analizar a Detalle la Estrutura de Datos Necesaria para generar la Lista de los Campos Pendientes.</t>
+  </si>
+  <si>
+    <t>FALTA HACER EL ANALISIS DETALLADO PARA LA DETEMINACION DE LOS CAMPOS NECESARIOS Y LOS QUE ESTAN PENDIENTES PARA LLEVAR EL CONTROL DESDE EL SISTEMA.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.- Reporte de No Show por fecha: Incluir cuando se agendo (Reporte de Citas Agendadas)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.- Campos específicos para seguimiento a No Show: Seguimiento (catalogado), Fecha de seguimiento, medio de confirmación (catalogado), ¿Confirmó Asistencia? (s/n), Comentario</t>
+    </r>
+  </si>
+  <si>
+    <t>S - C - 010</t>
+  </si>
+  <si>
+    <t>OLARA</t>
+  </si>
+  <si>
+    <t>K-CI-15</t>
+  </si>
+  <si>
+    <t>Para Control del No Show , estos son los campos de Captura para el Control, Falta en otra fase Analizar la Estructura de un Nuevo Reporte asociado a este Control.</t>
+  </si>
+  <si>
+    <t>Seguimiento</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>Fecha Seguimiento</t>
+  </si>
+  <si>
+    <t>Medio Confirmacion</t>
+  </si>
+  <si>
+    <t>Confirmo Asistencia</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Asociados al No Show</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.- Corregir la funcionalidad de pasar a Inactivo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.- Identificar si la unidad es para Primer servicio o Recurrente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.- Identificar el motivo por el cual no quiere ser contactado
+4.- Si el servicio se realiza por tiempo o po KM
+5.- Si la unidad fue vendida por el Distribuidor o no
+6.- Generar reporte para lista de objetivo (Formato Toyota)
+7.- Determinación de lista objetivo (Dashboard)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8.- Comentarios Citas ( Nuevo Campo )</t>
+    </r>
+  </si>
+  <si>
+    <t>K-CI-17</t>
+  </si>
+  <si>
+    <t>S - C - 011</t>
+  </si>
+  <si>
+    <t>Autos</t>
+  </si>
+  <si>
+    <t>Es Primer Servicio</t>
+  </si>
+  <si>
+    <t>Comentarios Citas</t>
+  </si>
+  <si>
+    <t>Ordenes</t>
+  </si>
+  <si>
+    <t>Verificar si este caso se requiera a nivel de la Orden, es de suponerse que al hacer citas pueden hacer comentarios.</t>
+  </si>
+  <si>
+    <t>1.- Horario de contacto preferido (ya se considero)
+2.- Lista objetivo:
+- Tipo VIN (1, s)
+- ¿Es Empresa?
+- Nombre Empresa
+- Tipo de servicio a ofrecer (catalogado: Express, Móvil, Normal)
+- Asignación (Telemarketing)
+- Fecha Proximo servicio 
+- Clasificar (tiempo o km)
+- 4 Contactos (N-30, N-15, N-7, N-3: El deber ser y el real)
+- Nota de contacto (catalogado: Realizado, Citado, Contactado, No Contactado, Inactivo)
+- Detalle de Nota (catalogado)
+- Comentarios</t>
+  </si>
+  <si>
+    <t>S - C - 012</t>
+  </si>
+  <si>
+    <t>K-CI-18</t>
+  </si>
+  <si>
+    <t>OLAG</t>
+  </si>
+  <si>
+    <t>Para Gestion de la Lista Objetivo, el cual es un Control que Revisa Toyota en las Auditorias.</t>
+  </si>
+  <si>
+    <t>T, S</t>
+  </si>
+  <si>
+    <t>1er Servicio o Servicio Subsecuente, Puede ser Estatus (S/N) y como complemento determinar si es 1er SERV (SINO entonces seria Subsecuente)</t>
+  </si>
+  <si>
+    <t>Tipo VIN / Es 1er SERV</t>
+  </si>
+  <si>
+    <t>Es Empresa</t>
+  </si>
+  <si>
+    <t>Nombre Empresa</t>
+  </si>
+  <si>
+    <t>Tipo Servicio</t>
+  </si>
+  <si>
+    <t>Movil, Express o Normal</t>
+  </si>
+  <si>
+    <t>Asignacion</t>
+  </si>
+  <si>
+    <t>Ejecutivo Telemarketing</t>
+  </si>
+  <si>
+    <t>Fecha Proximo SERV</t>
+  </si>
+  <si>
+    <t>Autos, Ordenes</t>
+  </si>
+  <si>
+    <t>Modalidad SERV</t>
+  </si>
+  <si>
+    <t>Si es por Tiempo o KM en base a historico de Servicios</t>
+  </si>
+  <si>
+    <t>Recordatorio 1</t>
+  </si>
+  <si>
+    <t>N - 30 (Fecha Proximo Servicio - 30)</t>
+  </si>
+  <si>
+    <t>NEW TBL Historial de Llamadas</t>
+  </si>
+  <si>
+    <t>Se usara en los Recordatorios de Citas</t>
+  </si>
+  <si>
+    <t>Llamada 1 Real</t>
+  </si>
+  <si>
+    <t>Recordatorio 2</t>
+  </si>
+  <si>
+    <t>Llamada 2 Real</t>
+  </si>
+  <si>
+    <t>Recordatorio 3</t>
+  </si>
+  <si>
+    <t>Llamada 3 Real</t>
+  </si>
+  <si>
+    <t>Recordatorio 4</t>
+  </si>
+  <si>
+    <t>Llamada 4 Real</t>
+  </si>
+  <si>
+    <t>N - 15 (Fecha Proximo Servicio - 15)</t>
+  </si>
+  <si>
+    <t>N - 7 (Fecha Proximo Servicio - 15)</t>
+  </si>
+  <si>
+    <t>N - 30 (Fecha Proximo Servicio - 7)</t>
+  </si>
+  <si>
+    <t>N - 30 (Fecha Proximo Servicio - 3)</t>
+  </si>
+  <si>
+    <t>Nota de Contacto</t>
+  </si>
+  <si>
+    <t>Detalle Nota</t>
+  </si>
+  <si>
+    <t>Fecha Ultimo Contacto</t>
+  </si>
+  <si>
+    <t>Redundante de alguna de las 4 (Reales)</t>
+  </si>
+  <si>
+    <t>Realizado, Citado, Contactado, No Contactado, Inactivo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1771,6 +2399,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1922,7 +2557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2035,6 +2670,18 @@
     <xf numFmtId="49" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2053,8 +2700,8 @@
     <xf numFmtId="49" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2080,7 +2727,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2390,49 +3037,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D038D82-D5B0-455D-8135-9E8D2F22CF22}">
-  <dimension ref="B2:AB51"/>
+  <dimension ref="B2:AC51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="J26" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="Y22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomRight" activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="50.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="50.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="43" style="2" customWidth="1"/>
-    <col min="12" max="12" width="30.1796875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.7265625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="26.1796875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="38.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="24.54296875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="23.81640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="20.7265625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="15.81640625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="35.54296875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="15.54296875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="35.453125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="27.1796875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="24.453125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="45.7265625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="35.54296875" style="2" customWidth="1"/>
-    <col min="28" max="28" width="13.1796875" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="9.1796875" style="2"/>
+    <col min="12" max="12" width="30.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="26.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="38.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="23.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="35.5703125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="35.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="27.140625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="23.28515625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="55.140625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="35.5703125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" s="1" customFormat="1" ht="83.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:29" s="1" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>62</v>
       </c>
@@ -2481,49 +3128,49 @@
         <v>30</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" spans="2:28" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="41" t="s">
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="40" t="s">
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="42" t="s">
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-    </row>
-    <row r="4" spans="2:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+    </row>
+    <row r="4" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="s">
         <v>9</v>
       </c>
@@ -2603,10 +3250,10 @@
         <v>127</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="2:28" ht="263.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" ht="263.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>17</v>
       </c>
@@ -2656,11 +3303,11 @@
         <v>69</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="U5" s="34"/>
       <c r="V5" s="34" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="W5" s="34" t="s">
         <v>70</v>
@@ -2676,10 +3323,10 @@
         <v>129</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="2:28" ht="169.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
         <v>17</v>
       </c>
@@ -2739,12 +3386,14 @@
       </c>
       <c r="Y6" s="34"/>
       <c r="Z6" s="5" t="s">
-        <v>134</v>
+        <v>331</v>
       </c>
       <c r="AA6" s="5"/>
-      <c r="AB6" s="7"/>
-    </row>
-    <row r="7" spans="2:28" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="AB6" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>17</v>
       </c>
@@ -2786,8 +3435,8 @@
       <c r="P7" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="Q7" s="24" t="s">
-        <v>135</v>
+      <c r="Q7" s="41" t="s">
+        <v>134</v>
       </c>
       <c r="R7" s="24"/>
       <c r="S7" s="34"/>
@@ -2797,13 +3446,15 @@
       <c r="W7" s="34"/>
       <c r="X7" s="34"/>
       <c r="Y7" s="34"/>
-      <c r="Z7" s="5" t="s">
-        <v>136</v>
+      <c r="Z7" s="40" t="s">
+        <v>334</v>
       </c>
       <c r="AA7" s="5"/>
-      <c r="AB7" s="7"/>
-    </row>
-    <row r="8" spans="2:28" ht="159.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB7" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" ht="159.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
         <v>17</v>
       </c>
@@ -2844,7 +3495,7 @@
         <v>80</v>
       </c>
       <c r="Q8" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="R8" s="24"/>
       <c r="S8" s="34" t="s">
@@ -2861,12 +3512,14 @@
       </c>
       <c r="Y8" s="34"/>
       <c r="Z8" s="5" t="s">
-        <v>138</v>
+        <v>332</v>
       </c>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="7"/>
-    </row>
-    <row r="9" spans="2:28" ht="177" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB8" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" ht="201" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="32" t="s">
         <v>17</v>
       </c>
@@ -2919,13 +3572,13 @@
       <c r="W9" s="34"/>
       <c r="X9" s="34"/>
       <c r="Y9" s="34"/>
-      <c r="Z9" s="5" t="s">
-        <v>139</v>
+      <c r="Z9" s="40" t="s">
+        <v>358</v>
       </c>
       <c r="AA9" s="5"/>
       <c r="AB9" s="7"/>
     </row>
-    <row r="10" spans="2:28" ht="116" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:29" ht="135" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
         <v>17</v>
       </c>
@@ -2988,7 +3641,7 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="7"/>
     </row>
-    <row r="11" spans="2:28" ht="145" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:29" ht="165" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>17</v>
       </c>
@@ -3031,7 +3684,7 @@
         <v>88</v>
       </c>
       <c r="Q11" s="24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="R11" s="24"/>
       <c r="S11" s="34"/>
@@ -3042,14 +3695,15 @@
       <c r="X11" s="34"/>
       <c r="Y11" s="34"/>
       <c r="Z11" s="5" t="s">
-        <v>142</v>
+        <v>357</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AB11" s="7"/>
-    </row>
-    <row r="12" spans="2:28" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="AC11" s="48"/>
+    </row>
+    <row r="12" spans="2:29" ht="165" x14ac:dyDescent="0.25">
       <c r="B12" s="32" t="s">
         <v>17</v>
       </c>
@@ -3089,10 +3743,10 @@
         <v>72</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="Q12" s="24" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="R12" s="24"/>
       <c r="S12" s="34"/>
@@ -3103,12 +3757,14 @@
       <c r="X12" s="34"/>
       <c r="Y12" s="34"/>
       <c r="Z12" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AA12" s="5"/>
-      <c r="AB12" s="7"/>
-    </row>
-    <row r="13" spans="2:28" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="AB12" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" ht="135" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
         <v>17</v>
       </c>
@@ -3148,10 +3804,10 @@
         <v>72</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="24" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="R13" s="24"/>
       <c r="S13" s="34"/>
@@ -3162,12 +3818,14 @@
       <c r="X13" s="34"/>
       <c r="Y13" s="34"/>
       <c r="Z13" s="5" t="s">
-        <v>149</v>
+        <v>368</v>
       </c>
       <c r="AA13" s="5"/>
-      <c r="AB13" s="7"/>
-    </row>
-    <row r="14" spans="2:28" ht="116" x14ac:dyDescent="0.35">
+      <c r="AB13" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" ht="120" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
         <v>17</v>
       </c>
@@ -3201,7 +3859,7 @@
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O14" s="24" t="s">
         <v>72</v>
@@ -3221,12 +3879,14 @@
       <c r="X14" s="34"/>
       <c r="Y14" s="34"/>
       <c r="Z14" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AA14" s="5"/>
-      <c r="AB14" s="7"/>
-    </row>
-    <row r="15" spans="2:28" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="AB14" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" ht="75" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
         <v>17</v>
       </c>
@@ -3283,7 +3943,7 @@
       <c r="AA15" s="5"/>
       <c r="AB15" s="7"/>
     </row>
-    <row r="16" spans="2:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:29" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="32" t="s">
         <v>17</v>
       </c>
@@ -3330,27 +3990,30 @@
       </c>
       <c r="R16" s="24"/>
       <c r="S16" s="34" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="T16" s="34"/>
       <c r="U16" s="34"/>
       <c r="V16" s="34"/>
       <c r="W16" s="34" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="X16" s="34" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Y16" s="34"/>
       <c r="Z16" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB16" s="7"/>
-    </row>
-    <row r="17" spans="2:28" ht="217.5" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="AB16" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC16" s="48"/>
+    </row>
+    <row r="17" spans="2:29" ht="240" x14ac:dyDescent="0.25">
       <c r="B17" s="32" t="s">
         <v>17</v>
       </c>
@@ -3390,10 +4053,10 @@
         <v>72</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="R17" s="24"/>
       <c r="S17" s="34"/>
@@ -3401,21 +4064,23 @@
       <c r="U17" s="34"/>
       <c r="V17" s="34"/>
       <c r="W17" s="34" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="X17" s="34" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="Y17" s="34"/>
       <c r="Z17" s="5" t="s">
-        <v>158</v>
+        <v>418</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB17" s="7"/>
-    </row>
-    <row r="18" spans="2:28" ht="116" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+      <c r="AB17" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" ht="150" x14ac:dyDescent="0.25">
       <c r="B18" s="32" t="s">
         <v>17</v>
       </c>
@@ -3461,7 +4126,7 @@
         <v>105</v>
       </c>
       <c r="R18" s="24" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="S18" s="34"/>
       <c r="T18" s="34"/>
@@ -3474,7 +4139,7 @@
       <c r="AA18" s="5"/>
       <c r="AB18" s="7"/>
     </row>
-    <row r="19" spans="2:28" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:29" ht="195" x14ac:dyDescent="0.25">
       <c r="B19" s="32" t="s">
         <v>17</v>
       </c>
@@ -3519,7 +4184,7 @@
         <v>114</v>
       </c>
       <c r="Q19" s="24" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R19" s="24"/>
       <c r="S19" s="34"/>
@@ -3530,14 +4195,17 @@
       <c r="X19" s="34"/>
       <c r="Y19" s="34"/>
       <c r="Z19" s="5" t="s">
-        <v>164</v>
+        <v>422</v>
       </c>
       <c r="AA19" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="AB19" s="7"/>
-    </row>
-    <row r="20" spans="2:28" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB19" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="AC19" s="48"/>
+    </row>
+    <row r="20" spans="2:29" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32" t="s">
         <v>17</v>
       </c>
@@ -3579,7 +4247,7 @@
         <v>67</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="Q20" s="24" t="s">
         <v>119</v>
@@ -3592,15 +4260,15 @@
       <c r="W20" s="34"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="34"/>
-      <c r="Z20" s="5" t="s">
-        <v>167</v>
+      <c r="Z20" s="40" t="s">
+        <v>159</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AB20" s="7"/>
     </row>
-    <row r="21" spans="2:28" ht="212.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:29" ht="212.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="32" t="s">
         <v>17</v>
       </c>
@@ -3641,7 +4309,7 @@
         <v>122</v>
       </c>
       <c r="Q21" s="24" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="R21" s="24"/>
       <c r="S21" s="34"/>
@@ -3654,14 +4322,17 @@
       <c r="X21" s="34"/>
       <c r="Y21" s="34"/>
       <c r="Z21" s="5" t="s">
-        <v>246</v>
+        <v>434</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB21" s="7"/>
-    </row>
-    <row r="22" spans="2:28" ht="245" customHeight="1" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+      <c r="AB21" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC21" s="48"/>
+    </row>
+    <row r="22" spans="2:29" ht="245.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="32" t="s">
         <v>17</v>
       </c>
@@ -3691,7 +4362,7 @@
         <v>60</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="M22" s="24" t="s">
         <v>57</v>
@@ -3719,14 +4390,17 @@
       <c r="X22" s="34"/>
       <c r="Y22" s="34"/>
       <c r="Z22" s="5" t="s">
-        <v>170</v>
+        <v>442</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB22" s="7"/>
-    </row>
-    <row r="23" spans="2:28" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+      <c r="AB22" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="AC22" s="48"/>
+    </row>
+    <row r="23" spans="2:29" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>17</v>
       </c>
@@ -3734,7 +4408,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="32" t="s">
@@ -3746,24 +4420,24 @@
       <c r="J23" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="44" t="s">
-        <v>306</v>
+      <c r="K23" s="38" t="s">
+        <v>293</v>
       </c>
       <c r="L23" s="35"/>
       <c r="M23" s="24" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="O23" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="24" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="R23" s="24"/>
       <c r="S23" s="34"/>
@@ -3771,21 +4445,21 @@
       <c r="U23" s="34"/>
       <c r="V23" s="34"/>
       <c r="W23" s="34" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="X23" s="34" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="Y23" s="34"/>
-      <c r="Z23" s="5" t="s">
-        <v>247</v>
+      <c r="Z23" s="40" t="s">
+        <v>236</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="AB23" s="7"/>
     </row>
-    <row r="24" spans="2:28" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:29" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="32" t="s">
         <v>17</v>
       </c>
@@ -3793,7 +4467,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32" t="s">
@@ -3806,23 +4480,23 @@
         <v>23</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="L24" s="35"/>
       <c r="M24" s="24" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="O24" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="24" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="R24" s="24"/>
       <c r="S24" s="34"/>
@@ -3830,17 +4504,17 @@
       <c r="U24" s="34"/>
       <c r="V24" s="34"/>
       <c r="W24" s="34" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="X24" s="34" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="Y24" s="34"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="7"/>
     </row>
-    <row r="25" spans="2:28" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:29" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="32" t="s">
         <v>17</v>
       </c>
@@ -3848,7 +4522,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32" t="s">
@@ -3861,23 +4535,23 @@
         <v>23</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="L25" s="35"/>
       <c r="M25" s="24" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="O25" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="24" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="R25" s="24"/>
       <c r="S25" s="34"/>
@@ -3885,17 +4559,17 @@
       <c r="U25" s="34"/>
       <c r="V25" s="34"/>
       <c r="W25" s="34" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="X25" s="34" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="Y25" s="34"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="7"/>
     </row>
-    <row r="26" spans="2:28" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:29" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32" t="s">
         <v>17</v>
       </c>
@@ -3903,7 +4577,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32" t="s">
@@ -3916,23 +4590,23 @@
         <v>23</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="L26" s="35"/>
       <c r="M26" s="24" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="O26" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="Q26" s="24" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="R26" s="24"/>
       <c r="S26" s="34"/>
@@ -3940,17 +4614,17 @@
       <c r="U26" s="34"/>
       <c r="V26" s="34"/>
       <c r="W26" s="34" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="X26" s="34" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="Y26" s="34"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="7"/>
     </row>
-    <row r="27" spans="2:28" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:29" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="32" t="s">
         <v>17</v>
       </c>
@@ -3958,7 +4632,7 @@
         <v>15</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="32" t="s">
@@ -3971,25 +4645,25 @@
         <v>23</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="O27" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="Q27" s="24" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="R27" s="24"/>
       <c r="S27" s="34"/>
@@ -3997,17 +4671,17 @@
       <c r="U27" s="34"/>
       <c r="V27" s="34"/>
       <c r="W27" s="34" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="X27" s="34" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="Y27" s="34"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="7"/>
     </row>
-    <row r="28" spans="2:28" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:29" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="32" t="s">
         <v>17</v>
       </c>
@@ -4015,7 +4689,7 @@
         <v>15</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="32" t="s">
@@ -4028,23 +4702,23 @@
         <v>23</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="L28" s="35"/>
       <c r="M28" s="24" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="O28" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="24" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="R28" s="24"/>
       <c r="S28" s="34"/>
@@ -4052,17 +4726,17 @@
       <c r="U28" s="34"/>
       <c r="V28" s="34"/>
       <c r="W28" s="34" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="X28" s="34" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="Y28" s="34"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="7"/>
     </row>
-    <row r="29" spans="2:28" ht="261" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:29" ht="300" x14ac:dyDescent="0.25">
       <c r="B29" s="32" t="s">
         <v>17</v>
       </c>
@@ -4089,25 +4763,25 @@
         <v>23</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="L29" s="36" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="M29" s="24" t="s">
         <v>57</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="O29" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="24" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="R29" s="24"/>
       <c r="S29" s="34"/>
@@ -4115,21 +4789,23 @@
       <c r="U29" s="34"/>
       <c r="V29" s="34"/>
       <c r="W29" s="34" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="X29" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="5" t="s">
-        <v>254</v>
+        <v>173</v>
+      </c>
+      <c r="Y29" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z29" s="40" t="s">
+        <v>243</v>
       </c>
       <c r="AA29" s="5" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="AB29" s="7"/>
     </row>
-    <row r="30" spans="2:28" ht="261" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:29" ht="300" x14ac:dyDescent="0.25">
       <c r="B30" s="32" t="s">
         <v>17</v>
       </c>
@@ -4156,25 +4832,25 @@
         <v>23</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L30" s="37" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="M30" s="24" t="s">
         <v>57</v>
       </c>
       <c r="N30" s="24" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="O30" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="Q30" s="24" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="R30" s="24"/>
       <c r="S30" s="34"/>
@@ -4182,17 +4858,17 @@
       <c r="U30" s="34"/>
       <c r="V30" s="34"/>
       <c r="W30" s="34" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="X30" s="34" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="Y30" s="34"/>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="7"/>
     </row>
-    <row r="31" spans="2:28" ht="145" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:29" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="32" t="s">
         <v>17</v>
       </c>
@@ -4219,25 +4895,25 @@
         <v>23</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="M31" s="24" t="s">
         <v>42</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="O31" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>186</v>
+        <v>386</v>
       </c>
       <c r="Q31" s="24" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="R31" s="24"/>
       <c r="S31" s="34"/>
@@ -4245,19 +4921,19 @@
       <c r="U31" s="34"/>
       <c r="V31" s="34"/>
       <c r="W31" s="34" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="X31" s="34" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="Y31" s="34"/>
-      <c r="Z31" s="5" t="s">
-        <v>256</v>
+      <c r="Z31" s="40" t="s">
+        <v>387</v>
       </c>
       <c r="AA31" s="5"/>
       <c r="AB31" s="7"/>
     </row>
-    <row r="32" spans="2:28" ht="145" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:29" ht="165" x14ac:dyDescent="0.25">
       <c r="B32" s="32" t="s">
         <v>17</v>
       </c>
@@ -4279,16 +4955,16 @@
       <c r="L32" s="24"/>
       <c r="M32" s="24"/>
       <c r="N32" s="24" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="O32" s="24" t="s">
         <v>67</v>
       </c>
       <c r="P32" s="24" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="Q32" s="24" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="R32" s="24"/>
       <c r="S32" s="34"/>
@@ -4296,19 +4972,19 @@
       <c r="U32" s="34"/>
       <c r="V32" s="34"/>
       <c r="W32" s="34" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="X32" s="34" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="Y32" s="34"/>
-      <c r="Z32" s="5" t="s">
-        <v>257</v>
+      <c r="Z32" s="40" t="s">
+        <v>385</v>
       </c>
       <c r="AA32" s="5"/>
       <c r="AB32" s="7"/>
     </row>
-    <row r="33" spans="2:28" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:28" ht="75" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>17</v>
       </c>
@@ -4361,7 +5037,7 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="7"/>
     </row>
-    <row r="34" spans="2:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:28" ht="60" x14ac:dyDescent="0.25">
       <c r="B34" s="32" t="s">
         <v>17</v>
       </c>
@@ -4414,15 +5090,15 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="7"/>
     </row>
-    <row r="35" spans="2:28" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:28" ht="180" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="32" t="s">
@@ -4444,16 +5120,16 @@
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
       <c r="N35" s="24" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="O35" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="Q35" s="24" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="R35" s="24"/>
       <c r="S35" s="34"/>
@@ -4461,27 +5137,27 @@
       <c r="U35" s="34"/>
       <c r="V35" s="34"/>
       <c r="W35" s="34" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="X35" s="34" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="Y35" s="34"/>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="AB35" s="7"/>
     </row>
-    <row r="36" spans="2:28" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:28" ht="180" x14ac:dyDescent="0.25">
       <c r="B36" s="32" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="32" t="s">
@@ -4503,16 +5179,16 @@
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
       <c r="N36" s="24" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="O36" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="Q36" s="24" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="R36" s="24"/>
       <c r="S36" s="34"/>
@@ -4520,7 +5196,7 @@
       <c r="U36" s="34"/>
       <c r="V36" s="34"/>
       <c r="W36" s="34" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="X36" s="34"/>
       <c r="Y36" s="34"/>
@@ -4528,12 +5204,12 @@
       <c r="AA36" s="5"/>
       <c r="AB36" s="7"/>
     </row>
-    <row r="37" spans="2:28" ht="144" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:28" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="32" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="32"/>
@@ -4552,16 +5228,16 @@
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
       <c r="N37" s="24" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="O37" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="Q37" s="24" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="R37" s="24"/>
       <c r="S37" s="34"/>
@@ -4575,12 +5251,12 @@
       <c r="AA37" s="5"/>
       <c r="AB37" s="7"/>
     </row>
-    <row r="38" spans="2:28" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:28" ht="75" x14ac:dyDescent="0.25">
       <c r="B38" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
@@ -4595,16 +5271,16 @@
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
       <c r="N38" s="24" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="O38" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P38" s="24" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="Q38" s="24" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="R38" s="24"/>
       <c r="S38" s="34"/>
@@ -4612,7 +5288,7 @@
       <c r="U38" s="34"/>
       <c r="V38" s="34"/>
       <c r="W38" s="34" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="X38" s="34"/>
       <c r="Y38" s="34"/>
@@ -4620,15 +5296,15 @@
       <c r="AA38" s="5"/>
       <c r="AB38" s="7"/>
     </row>
-    <row r="39" spans="2:28" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:28" ht="75" x14ac:dyDescent="0.25">
       <c r="B39" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="32"/>
@@ -4644,16 +5320,16 @@
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
       <c r="N39" s="24" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="O39" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P39" s="24" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="Q39" s="24" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="R39" s="24"/>
       <c r="S39" s="34"/>
@@ -4661,27 +5337,27 @@
       <c r="U39" s="34"/>
       <c r="V39" s="34"/>
       <c r="W39" s="34" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="X39" s="34" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="Y39" s="34"/>
       <c r="Z39" s="5"/>
       <c r="AA39" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AB39" s="7"/>
     </row>
-    <row r="40" spans="2:28" ht="225" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:28" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="32" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="32" t="s">
@@ -4699,16 +5375,16 @@
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
       <c r="N40" s="24" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="O40" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P40" s="24" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="Q40" s="24" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="R40" s="24"/>
       <c r="S40" s="34"/>
@@ -4716,10 +5392,10 @@
       <c r="U40" s="34"/>
       <c r="V40" s="34"/>
       <c r="W40" s="34" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="X40" s="34" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="Y40" s="34"/>
       <c r="Z40" s="5"/>
@@ -4728,15 +5404,15 @@
       </c>
       <c r="AB40" s="7"/>
     </row>
-    <row r="41" spans="2:28" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:28" ht="285" x14ac:dyDescent="0.25">
       <c r="B41" s="32" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E41" s="32"/>
       <c r="F41" s="32" t="s">
@@ -4751,25 +5427,25 @@
         <v>13</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="M41" s="24" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="N41" s="24" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="O41" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P41" s="24" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="Q41" s="24" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="R41" s="24"/>
       <c r="S41" s="34"/>
@@ -4777,25 +5453,25 @@
       <c r="U41" s="34"/>
       <c r="V41" s="34"/>
       <c r="W41" s="34" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="X41" s="34"/>
       <c r="Y41" s="34"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="AB41" s="7"/>
     </row>
-    <row r="42" spans="2:28" ht="203" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:28" ht="210" x14ac:dyDescent="0.25">
       <c r="B42" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="32" t="s">
@@ -4810,18 +5486,18 @@
         <v>13</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
       <c r="N42" s="24" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="O42" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P42" s="24" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="Q42" s="24"/>
       <c r="R42" s="24"/>
@@ -4830,7 +5506,7 @@
       <c r="U42" s="34"/>
       <c r="V42" s="34"/>
       <c r="W42" s="34" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="X42" s="34"/>
       <c r="Y42" s="34"/>
@@ -4838,15 +5514,15 @@
       <c r="AA42" s="5"/>
       <c r="AB42" s="7"/>
     </row>
-    <row r="43" spans="2:28" ht="261" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:28" ht="285" x14ac:dyDescent="0.25">
       <c r="B43" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="32" t="s">
@@ -4861,23 +5537,23 @@
         <v>13</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="M43" s="24"/>
       <c r="N43" s="24" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="O43" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P43" s="24" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="Q43" s="24" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="R43" s="24"/>
       <c r="S43" s="34"/>
@@ -4891,15 +5567,15 @@
       <c r="AA43" s="5"/>
       <c r="AB43" s="7"/>
     </row>
-    <row r="44" spans="2:28" ht="261" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:28" ht="285" x14ac:dyDescent="0.25">
       <c r="B44" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="32" t="s">
@@ -4914,23 +5590,23 @@
         <v>13</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="L44" s="24" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="M44" s="24"/>
       <c r="N44" s="24" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="O44" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P44" s="24" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="Q44" s="24" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="R44" s="24"/>
       <c r="S44" s="34"/>
@@ -4944,15 +5620,15 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="7"/>
     </row>
-    <row r="45" spans="2:28" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:28" ht="255" x14ac:dyDescent="0.25">
       <c r="B45" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="32" t="s">
@@ -4967,21 +5643,21 @@
         <v>13</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
       <c r="N45" s="24" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="O45" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P45" s="24" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="Q45" s="24" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="R45" s="24"/>
       <c r="S45" s="34"/>
@@ -4995,15 +5671,15 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="7"/>
     </row>
-    <row r="46" spans="2:28" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:28" ht="135" x14ac:dyDescent="0.25">
       <c r="B46" s="32" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="32" t="s">
@@ -5018,20 +5694,20 @@
         <v>13</v>
       </c>
       <c r="K46" s="24" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="L46" s="24"/>
       <c r="M46" s="24" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="N46" s="24" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="O46" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P46" s="24" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q46" s="24"/>
       <c r="R46" s="24"/>
@@ -5046,15 +5722,15 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="7"/>
     </row>
-    <row r="47" spans="2:28" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:28" ht="105" x14ac:dyDescent="0.25">
       <c r="B47" s="32" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32" t="s">
@@ -5069,20 +5745,20 @@
         <v>13</v>
       </c>
       <c r="K47" s="24" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="L47" s="24"/>
       <c r="M47" s="24" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="N47" s="24" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="O47" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P47" s="24" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q47" s="24"/>
       <c r="R47" s="24"/>
@@ -5097,15 +5773,15 @@
       <c r="AA47" s="5"/>
       <c r="AB47" s="7"/>
     </row>
-    <row r="48" spans="2:28" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:28" ht="105" x14ac:dyDescent="0.25">
       <c r="B48" s="32" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="32" t="s">
@@ -5120,20 +5796,20 @@
         <v>13</v>
       </c>
       <c r="K48" s="24" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="L48" s="24"/>
       <c r="M48" s="24" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="O48" s="24" t="s">
         <v>72</v>
       </c>
       <c r="P48" s="24" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q48" s="24"/>
       <c r="R48" s="24"/>
@@ -5148,13 +5824,13 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="7"/>
     </row>
-    <row r="49" spans="28:28" x14ac:dyDescent="0.35">
+    <row r="49" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB49" s="8"/>
     </row>
-    <row r="50" spans="28:28" x14ac:dyDescent="0.35">
+    <row r="50" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB50" s="8"/>
     </row>
-    <row r="51" spans="28:28" x14ac:dyDescent="0.35">
+    <row r="51" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB51" s="8"/>
     </row>
   </sheetData>
@@ -5173,138 +5849,160 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4862388-C0C2-40EF-9FDF-90ED8985F146}">
-  <dimension ref="B2:X41"/>
+  <dimension ref="B2:X75"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D61" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="47.81640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="9" customWidth="1"/>
-    <col min="10" max="11" width="13.1796875" style="9" customWidth="1"/>
-    <col min="12" max="12" width="8.1796875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" style="9" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="12.1796875" style="9" customWidth="1"/>
-    <col min="16" max="16" width="6.7265625" style="9" customWidth="1"/>
-    <col min="17" max="17" width="10.81640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="53.42578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="9" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" style="9" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="9" customWidth="1"/>
     <col min="18" max="18" width="8" style="9" customWidth="1"/>
-    <col min="19" max="19" width="14.453125" style="9" customWidth="1"/>
-    <col min="20" max="20" width="9.1796875" style="11"/>
-    <col min="21" max="21" width="11.7265625" style="11" customWidth="1"/>
-    <col min="22" max="22" width="10.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="9.1796875" style="11"/>
+    <col min="19" max="19" width="14.42578125" style="9" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="11"/>
+    <col min="21" max="21" width="11.7109375" style="11" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" ht="135" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="K2" s="10"/>
       <c r="U2" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="V3" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="M3" s="15" t="s">
+    </row>
+    <row r="4" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="V3" s="21" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
       <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="M4" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
+      <c r="P4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>310</v>
+      </c>
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
       <c r="T4" s="23"/>
@@ -5312,23 +6010,45 @@
       <c r="V4" s="23"/>
       <c r="W4" s="23"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+    <row r="5" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>86</v>
+      </c>
       <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="E5" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="K5" s="22" t="s">
+        <v>292</v>
+      </c>
       <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+      <c r="M5" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
+      <c r="P5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>310</v>
+      </c>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
       <c r="T5" s="23"/>
@@ -5336,23 +6056,45 @@
       <c r="V5" s="23"/>
       <c r="W5" s="23"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+    <row r="6" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>314</v>
+      </c>
       <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
+      <c r="K6" s="22" t="s">
+        <v>292</v>
+      </c>
       <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+      <c r="M6" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
+      <c r="P6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>310</v>
+      </c>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
       <c r="T6" s="23"/>
@@ -5360,23 +6102,45 @@
       <c r="V6" s="23"/>
       <c r="W6" s="23"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+    <row r="7" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>316</v>
+      </c>
       <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
+      <c r="K7" s="22" t="s">
+        <v>292</v>
+      </c>
       <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+      <c r="M7" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
+      <c r="P7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>310</v>
+      </c>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="23"/>
@@ -5384,23 +6148,45 @@
       <c r="V7" s="23"/>
       <c r="W7" s="23"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+    <row r="8" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>318</v>
+      </c>
       <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="E8" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>321</v>
+      </c>
       <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+      <c r="K8" s="22" t="s">
+        <v>292</v>
+      </c>
       <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="M8" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
+      <c r="P8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>310</v>
+      </c>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="23"/>
@@ -5408,23 +6194,49 @@
       <c r="V8" s="23"/>
       <c r="W8" s="23"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+    <row r="9" spans="2:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
+      <c r="P9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>310</v>
+      </c>
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="23"/>
@@ -5432,23 +6244,45 @@
       <c r="V9" s="23"/>
       <c r="W9" s="23"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+    <row r="10" spans="2:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>86</v>
+      </c>
       <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="E10" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
+      <c r="K10" s="22" t="s">
+        <v>326</v>
+      </c>
       <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+      <c r="M10" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
+      <c r="P10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>340</v>
+      </c>
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="23"/>
@@ -5456,23 +6290,45 @@
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+    <row r="11" spans="2:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>86</v>
+      </c>
       <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="E11" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
+      <c r="K11" s="22" t="s">
+        <v>326</v>
+      </c>
       <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="M11" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
+      <c r="P11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>340</v>
+      </c>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="23"/>
@@ -5480,23 +6336,45 @@
       <c r="V11" s="23"/>
       <c r="W11" s="23"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+    <row r="12" spans="2:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>314</v>
+      </c>
       <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="E12" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="K12" s="22" t="s">
+        <v>326</v>
+      </c>
       <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="M12" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
+      <c r="P12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>340</v>
+      </c>
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
       <c r="T12" s="23"/>
@@ -5504,23 +6382,45 @@
       <c r="V12" s="23"/>
       <c r="W12" s="23"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+    <row r="13" spans="2:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>316</v>
+      </c>
       <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="E13" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
+      <c r="K13" s="22" t="s">
+        <v>326</v>
+      </c>
       <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
+      <c r="M13" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
+      <c r="P13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>340</v>
+      </c>
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="23"/>
@@ -5528,23 +6428,45 @@
       <c r="V13" s="23"/>
       <c r="W13" s="23"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+    <row r="14" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>318</v>
+      </c>
       <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="E14" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
+      <c r="K14" s="22" t="s">
+        <v>333</v>
+      </c>
       <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="M14" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
+      <c r="P14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>339</v>
+      </c>
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
       <c r="T14" s="23"/>
@@ -5552,47 +6474,95 @@
       <c r="V14" s="23"/>
       <c r="W14" s="23"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
+    <row r="15" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
+      <c r="Q15" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>20</v>
+      </c>
       <c r="S15" s="22"/>
       <c r="T15" s="23"/>
       <c r="U15" s="23"/>
       <c r="V15" s="23"/>
       <c r="W15" s="23"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+    <row r="16" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="I16" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
+      <c r="K16" s="22" t="s">
+        <v>341</v>
+      </c>
       <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
+      <c r="M16" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
+      <c r="P16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>342</v>
+      </c>
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="23"/>
@@ -5600,47 +6570,89 @@
       <c r="V16" s="23"/>
       <c r="W16" s="23"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+    <row r="17" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>314</v>
+      </c>
       <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="I17" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
+      <c r="K17" s="22" t="s">
+        <v>341</v>
+      </c>
       <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
+      <c r="M17" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
+      <c r="Q17" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>20</v>
+      </c>
       <c r="S17" s="22"/>
       <c r="T17" s="23"/>
       <c r="U17" s="23"/>
       <c r="V17" s="23"/>
       <c r="W17" s="23"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
+    <row r="18" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="I18" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
+      <c r="K18" s="22" t="s">
+        <v>341</v>
+      </c>
       <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
+      <c r="M18" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
+      <c r="P18" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>342</v>
+      </c>
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
       <c r="T18" s="23"/>
@@ -5648,23 +6660,47 @@
       <c r="V18" s="23"/>
       <c r="W18" s="23"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
+    <row r="19" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
+      <c r="P19" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>342</v>
+      </c>
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
       <c r="T19" s="23"/>
@@ -5672,23 +6708,45 @@
       <c r="V19" s="23"/>
       <c r="W19" s="23"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
+      <c r="I20" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
+      <c r="K20" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="L20" s="39"/>
+      <c r="M20" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
+      <c r="P20" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="22" t="s">
+        <v>342</v>
+      </c>
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
       <c r="T20" s="23"/>
@@ -5696,23 +6754,45 @@
       <c r="V20" s="23"/>
       <c r="W20" s="23"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>86</v>
+      </c>
       <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="E21" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
+      <c r="K21" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="L21" s="39"/>
+      <c r="M21" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
+      <c r="P21" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="22" t="s">
+        <v>342</v>
+      </c>
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="23"/>
@@ -5720,23 +6800,45 @@
       <c r="V21" s="23"/>
       <c r="W21" s="23"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+    <row r="22" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>86</v>
+      </c>
       <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="E22" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>17</v>
+      </c>
       <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
+      <c r="H22" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>321</v>
+      </c>
       <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
+      <c r="K22" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
+      <c r="P22" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>363</v>
+      </c>
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="23"/>
@@ -5744,23 +6846,47 @@
       <c r="V22" s="23"/>
       <c r="W22" s="23"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
+    <row r="23" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
+      <c r="P23" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="22" t="s">
+        <v>367</v>
+      </c>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="23"/>
@@ -5768,23 +6894,45 @@
       <c r="V23" s="23"/>
       <c r="W23" s="23"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
+    <row r="24" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>316</v>
+      </c>
       <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
+      <c r="E24" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
+      <c r="K24" s="22" t="s">
+        <v>369</v>
+      </c>
       <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
+      <c r="M24" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
+      <c r="P24" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="22" t="s">
+        <v>370</v>
+      </c>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="23"/>
@@ -5792,23 +6940,45 @@
       <c r="V24" s="23"/>
       <c r="W24" s="23"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+    <row r="25" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>314</v>
+      </c>
       <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+      <c r="E25" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
+      <c r="K25" s="22" t="s">
+        <v>369</v>
+      </c>
       <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
+      <c r="M25" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
+      <c r="P25" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="22" t="s">
+        <v>370</v>
+      </c>
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="23"/>
@@ -5816,23 +6986,45 @@
       <c r="V25" s="23"/>
       <c r="W25" s="23"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+    <row r="26" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>314</v>
+      </c>
       <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
+      <c r="E26" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
+      <c r="K26" s="22" t="s">
+        <v>369</v>
+      </c>
       <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
+      <c r="M26" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
+      <c r="P26" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="22" t="s">
+        <v>370</v>
+      </c>
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
       <c r="T26" s="23"/>
@@ -5840,95 +7032,191 @@
       <c r="V26" s="23"/>
       <c r="W26" s="23"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+    <row r="27" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>86</v>
+      </c>
       <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
+      <c r="E27" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
+      <c r="K27" s="22" t="s">
+        <v>379</v>
+      </c>
       <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
+      <c r="M27" s="22" t="s">
+        <v>378</v>
+      </c>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
+      <c r="P27" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="R27" s="22" t="s">
+        <v>20</v>
+      </c>
       <c r="S27" s="22"/>
       <c r="T27" s="23"/>
       <c r="U27" s="23"/>
       <c r="V27" s="23"/>
       <c r="W27" s="23"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
+    <row r="28" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>316</v>
+      </c>
       <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
+      <c r="E28" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
+      <c r="K28" s="22" t="s">
+        <v>379</v>
+      </c>
       <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
+      <c r="M28" s="22" t="s">
+        <v>378</v>
+      </c>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
+      <c r="P28" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="R28" s="22" t="s">
+        <v>20</v>
+      </c>
       <c r="S28" s="22"/>
       <c r="T28" s="23"/>
       <c r="U28" s="23"/>
       <c r="V28" s="23"/>
       <c r="W28" s="23"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
+    <row r="29" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B29" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>314</v>
+      </c>
       <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
+      <c r="E29" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
+      <c r="K29" s="22" t="s">
+        <v>379</v>
+      </c>
       <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
+      <c r="M29" s="22" t="s">
+        <v>378</v>
+      </c>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
+      <c r="P29" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="R29" s="22" t="s">
+        <v>20</v>
+      </c>
       <c r="S29" s="22"/>
       <c r="T29" s="23"/>
       <c r="U29" s="23"/>
       <c r="V29" s="23"/>
       <c r="W29" s="23"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
+    <row r="30" spans="2:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="B30" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>321</v>
+      </c>
       <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
+      <c r="K30" s="22" t="s">
+        <v>384</v>
+      </c>
       <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
+      <c r="M30" s="22" t="s">
+        <v>378</v>
+      </c>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
+      <c r="P30" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
       <c r="T30" s="23"/>
@@ -5936,23 +7224,47 @@
       <c r="V30" s="23"/>
       <c r="W30" s="23"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
+    <row r="31" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
+      <c r="K31" s="22" t="s">
+        <v>384</v>
+      </c>
       <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
+      <c r="M31" s="22" t="s">
+        <v>378</v>
+      </c>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
+      <c r="P31" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
       <c r="T31" s="23"/>
@@ -5960,23 +7272,47 @@
       <c r="V31" s="23"/>
       <c r="W31" s="23"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
+    <row r="32" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
+      <c r="K32" s="22" t="s">
+        <v>384</v>
+      </c>
       <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
+      <c r="M32" s="22" t="s">
+        <v>378</v>
+      </c>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
+      <c r="P32" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
       <c r="T32" s="23"/>
@@ -5984,23 +7320,47 @@
       <c r="V32" s="23"/>
       <c r="W32" s="23"/>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
+    <row r="33" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
+      <c r="K33" s="22" t="s">
+        <v>384</v>
+      </c>
       <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
+      <c r="M33" s="22" t="s">
+        <v>378</v>
+      </c>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
+      <c r="P33" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
       <c r="T33" s="23"/>
@@ -6008,23 +7368,47 @@
       <c r="V33" s="23"/>
       <c r="W33" s="23"/>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
+    <row r="34" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B34" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
+      <c r="K34" s="22" t="s">
+        <v>384</v>
+      </c>
       <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
+      <c r="M34" s="22" t="s">
+        <v>378</v>
+      </c>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
+      <c r="P34" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
       <c r="T34" s="23"/>
@@ -6032,23 +7416,47 @@
       <c r="V34" s="23"/>
       <c r="W34" s="23"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
+    <row r="35" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B35" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
+      <c r="K35" s="22" t="s">
+        <v>384</v>
+      </c>
       <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
+      <c r="M35" s="22" t="s">
+        <v>378</v>
+      </c>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
+      <c r="P35" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
       <c r="T35" s="23"/>
@@ -6056,23 +7464,47 @@
       <c r="V35" s="23"/>
       <c r="W35" s="23"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
+    <row r="36" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
+      <c r="K36" s="22" t="s">
+        <v>384</v>
+      </c>
       <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
+      <c r="M36" s="22" t="s">
+        <v>378</v>
+      </c>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
+      <c r="P36" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
       <c r="T36" s="23"/>
@@ -6080,23 +7512,47 @@
       <c r="V36" s="23"/>
       <c r="W36" s="23"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
+    <row r="37" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B37" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
+      <c r="K37" s="22" t="s">
+        <v>384</v>
+      </c>
       <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
+      <c r="M37" s="22" t="s">
+        <v>378</v>
+      </c>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
+      <c r="P37" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="R37" s="22"/>
       <c r="S37" s="22"/>
       <c r="T37" s="23"/>
@@ -6104,23 +7560,47 @@
       <c r="V37" s="23"/>
       <c r="W37" s="23"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
+    <row r="38" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B38" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
+      <c r="K38" s="22" t="s">
+        <v>384</v>
+      </c>
       <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
+      <c r="M38" s="22" t="s">
+        <v>378</v>
+      </c>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
+      <c r="P38" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="R38" s="22"/>
       <c r="S38" s="22"/>
       <c r="T38" s="23"/>
@@ -6128,23 +7608,47 @@
       <c r="V38" s="23"/>
       <c r="W38" s="23"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
+    <row r="39" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B39" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
+      <c r="K39" s="22" t="s">
+        <v>384</v>
+      </c>
       <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
+      <c r="M39" s="22" t="s">
+        <v>378</v>
+      </c>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
+      <c r="P39" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
       <c r="T39" s="23"/>
@@ -6152,23 +7656,47 @@
       <c r="V39" s="23"/>
       <c r="W39" s="23"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
+    <row r="40" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B40" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
+      <c r="K40" s="22" t="s">
+        <v>384</v>
+      </c>
       <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
+      <c r="M40" s="22" t="s">
+        <v>378</v>
+      </c>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
+      <c r="P40" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="R40" s="22"/>
       <c r="S40" s="22"/>
       <c r="T40" s="23"/>
@@ -6176,23 +7704,47 @@
       <c r="V40" s="23"/>
       <c r="W40" s="23"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
+    <row r="41" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
+      <c r="K41" s="22" t="s">
+        <v>384</v>
+      </c>
       <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
+      <c r="M41" s="22" t="s">
+        <v>378</v>
+      </c>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
+      <c r="P41" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
       <c r="T41" s="23"/>
@@ -6200,6 +7752,1244 @@
       <c r="V41" s="23"/>
       <c r="W41" s="23"/>
     </row>
+    <row r="42" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B42" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B43" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="I43" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="R43" s="22"/>
+    </row>
+    <row r="44" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B44" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="R44" s="22"/>
+    </row>
+    <row r="45" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B45" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="R45" s="22"/>
+    </row>
+    <row r="46" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B46" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="R46" s="22"/>
+    </row>
+    <row r="47" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B47" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="R47" s="22"/>
+    </row>
+    <row r="48" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B48" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="R48" s="22"/>
+    </row>
+    <row r="49" spans="2:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="B49" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K50" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="P50" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="P52" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K53" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="P53" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K54" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="P54" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K55" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="P55" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B56" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K56" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="B57" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K57" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="P57" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K58" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="P58" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K59" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="P59" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B60" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K60" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="P60" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B61" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K61" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="P61" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B62" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K62" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="P62" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B63" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K63" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="P63" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B64" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K64" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="P64" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K65" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="P65" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B66" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K66" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="P66" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B67" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K67" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="P67" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B68" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K68" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="P68" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B69" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K69" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="P69" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B70" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K70" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="P70" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B71" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K71" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="P71" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="G72" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K72" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="P72" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B73" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K73" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="P73" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K74" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="P74" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B75" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K75" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="P75" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
